--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fn1-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fn1-Itgb1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>40.75339133333333</v>
+        <v>35.73885133333334</v>
       </c>
       <c r="H2">
-        <v>122.260174</v>
+        <v>107.216554</v>
       </c>
       <c r="I2">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="J2">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N2">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O2">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P2">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q2">
-        <v>4032.414564323326</v>
+        <v>6008.052126738336</v>
       </c>
       <c r="R2">
-        <v>36291.73107890993</v>
+        <v>54072.46914064503</v>
       </c>
       <c r="S2">
-        <v>0.004461494464728316</v>
+        <v>0.005818347910067969</v>
       </c>
       <c r="T2">
-        <v>0.004461494464728316</v>
+        <v>0.005818347910067969</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>40.75339133333333</v>
+        <v>35.73885133333334</v>
       </c>
       <c r="H3">
-        <v>122.260174</v>
+        <v>107.216554</v>
       </c>
       <c r="I3">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="J3">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>489.018707</v>
       </c>
       <c r="O3">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P3">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q3">
-        <v>6643.056911897224</v>
+        <v>5825.655622897298</v>
       </c>
       <c r="R3">
-        <v>59787.51220707502</v>
+        <v>52430.90060607568</v>
       </c>
       <c r="S3">
-        <v>0.00734992922194203</v>
+        <v>0.005641710574948285</v>
       </c>
       <c r="T3">
-        <v>0.007349929221942031</v>
+        <v>0.005641710574948284</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>40.75339133333333</v>
+        <v>35.73885133333334</v>
       </c>
       <c r="H4">
-        <v>122.260174</v>
+        <v>107.216554</v>
       </c>
       <c r="I4">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="J4">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N4">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O4">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P4">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q4">
-        <v>5879.605741311096</v>
+        <v>5932.418090965207</v>
       </c>
       <c r="R4">
-        <v>52916.45167179986</v>
+        <v>53391.76281868686</v>
       </c>
       <c r="S4">
-        <v>0.006505240979369941</v>
+        <v>0.005745102018606388</v>
       </c>
       <c r="T4">
-        <v>0.006505240979369942</v>
+        <v>0.005745102018606387</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>40.75339133333333</v>
+        <v>35.73885133333334</v>
       </c>
       <c r="H5">
-        <v>122.260174</v>
+        <v>107.216554</v>
       </c>
       <c r="I5">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="J5">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N5">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O5">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P5">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q5">
-        <v>2665.113126663076</v>
+        <v>2366.867412631163</v>
       </c>
       <c r="R5">
-        <v>23986.01813996768</v>
+        <v>21301.80671368046</v>
       </c>
       <c r="S5">
-        <v>0.002948701645828273</v>
+        <v>0.002292133585593019</v>
       </c>
       <c r="T5">
-        <v>0.002948701645828274</v>
+        <v>0.002292133585593019</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,13 +788,13 @@
         <v>1689.289306666667</v>
       </c>
       <c r="H6">
-        <v>5067.867920000001</v>
+        <v>5067.86792</v>
       </c>
       <c r="I6">
-        <v>0.8814813868902839</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="J6">
-        <v>0.8814813868902838</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N6">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O6">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P6">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q6">
-        <v>167149.642782898</v>
+        <v>283986.1336597797</v>
       </c>
       <c r="R6">
-        <v>1504346.785046082</v>
+        <v>2555875.202938017</v>
       </c>
       <c r="S6">
-        <v>0.184935649388608</v>
+        <v>0.2750192728711697</v>
       </c>
       <c r="T6">
-        <v>0.184935649388608</v>
+        <v>0.2750192728711697</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,13 +850,13 @@
         <v>1689.289306666667</v>
       </c>
       <c r="H7">
-        <v>5067.867920000001</v>
+        <v>5067.86792</v>
       </c>
       <c r="I7">
-        <v>0.8814813868902839</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="J7">
-        <v>0.8814813868902838</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>489.018707</v>
       </c>
       <c r="O7">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P7">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q7">
         <v>275364.6908316866</v>
       </c>
       <c r="R7">
-        <v>2478282.21748518</v>
+        <v>2478282.217485179</v>
       </c>
       <c r="S7">
-        <v>0.3046656102268477</v>
+        <v>0.2666700520584271</v>
       </c>
       <c r="T7">
-        <v>0.3046656102268477</v>
+        <v>0.2666700520584271</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,13 +912,13 @@
         <v>1689.289306666667</v>
       </c>
       <c r="H8">
-        <v>5067.867920000001</v>
+        <v>5067.86792</v>
       </c>
       <c r="I8">
-        <v>0.8814813868902839</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="J8">
-        <v>0.8814813868902838</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N8">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O8">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P8">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q8">
-        <v>243718.4926518943</v>
+        <v>280411.0952048525</v>
       </c>
       <c r="R8">
-        <v>2193466.433867049</v>
+        <v>2523699.856843673</v>
       </c>
       <c r="S8">
-        <v>0.2696520133467036</v>
+        <v>0.2715571162380629</v>
       </c>
       <c r="T8">
-        <v>0.2696520133467037</v>
+        <v>0.2715571162380629</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,13 +974,13 @@
         <v>1689.289306666667</v>
       </c>
       <c r="H9">
-        <v>5067.867920000001</v>
+        <v>5067.86792</v>
       </c>
       <c r="I9">
-        <v>0.8814813868902839</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="J9">
-        <v>0.8814813868902838</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N9">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O9">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P9">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q9">
-        <v>110472.9436896327</v>
+        <v>111876.1141247542</v>
       </c>
       <c r="R9">
-        <v>994256.4932066947</v>
+        <v>1006885.027122788</v>
       </c>
       <c r="S9">
-        <v>0.1222281139281244</v>
+        <v>0.1083436263655837</v>
       </c>
       <c r="T9">
-        <v>0.1222281139281244</v>
+        <v>0.1083436263655837</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>85.41274733333334</v>
+        <v>93.641553</v>
       </c>
       <c r="H10">
-        <v>256.238242</v>
+        <v>280.924659</v>
       </c>
       <c r="I10">
-        <v>0.04456888863285297</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="J10">
-        <v>0.04456888863285296</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N10">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O10">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P10">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q10">
-        <v>8451.311536473071</v>
+        <v>15742.06530605518</v>
       </c>
       <c r="R10">
-        <v>76061.80382825763</v>
+        <v>141678.5877544966</v>
       </c>
       <c r="S10">
-        <v>0.009350596035751717</v>
+        <v>0.01524500967060746</v>
       </c>
       <c r="T10">
-        <v>0.009350596035751717</v>
+        <v>0.01524500967060746</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>85.41274733333334</v>
+        <v>93.641553</v>
       </c>
       <c r="H11">
-        <v>256.238242</v>
+        <v>280.924659</v>
       </c>
       <c r="I11">
-        <v>0.04456888863285297</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="J11">
-        <v>0.04456888863285296</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>489.018707</v>
       </c>
       <c r="O11">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P11">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q11">
-        <v>13922.81042075479</v>
+        <v>15264.15705651066</v>
       </c>
       <c r="R11">
-        <v>125305.2937867931</v>
+        <v>137377.4135085959</v>
       </c>
       <c r="S11">
-        <v>0.01540430445203566</v>
+        <v>0.0147821913717171</v>
       </c>
       <c r="T11">
-        <v>0.01540430445203566</v>
+        <v>0.0147821913717171</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>85.41274733333334</v>
+        <v>93.641553</v>
       </c>
       <c r="H12">
-        <v>256.238242</v>
+        <v>280.924659</v>
       </c>
       <c r="I12">
-        <v>0.04456888863285297</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="J12">
-        <v>0.04456888863285296</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N12">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O12">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P12">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q12">
-        <v>12322.73592876338</v>
+        <v>15543.89193715209</v>
       </c>
       <c r="R12">
-        <v>110904.6233588704</v>
+        <v>139895.0274343688</v>
       </c>
       <c r="S12">
-        <v>0.01363396973686715</v>
+        <v>0.01505309362486329</v>
       </c>
       <c r="T12">
-        <v>0.01363396973686715</v>
+        <v>0.01505309362486329</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>85.41274733333334</v>
+        <v>93.641553</v>
       </c>
       <c r="H13">
-        <v>256.238242</v>
+        <v>280.924659</v>
       </c>
       <c r="I13">
-        <v>0.04456888863285297</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="J13">
-        <v>0.04456888863285296</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N13">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O13">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P13">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q13">
-        <v>5585.661135303718</v>
+        <v>6201.574253091754</v>
       </c>
       <c r="R13">
-        <v>50270.95021773345</v>
+        <v>55814.16827782578</v>
       </c>
       <c r="S13">
-        <v>0.006180018408198435</v>
+        <v>0.006005759576223333</v>
       </c>
       <c r="T13">
-        <v>0.006180018408198435</v>
+        <v>0.006005759576223333</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>100.9654023333333</v>
+        <v>14.34625366666667</v>
       </c>
       <c r="H14">
-        <v>302.8962069999999</v>
+        <v>43.038761</v>
       </c>
       <c r="I14">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="J14">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N14">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O14">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P14">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q14">
-        <v>9990.195798225288</v>
+        <v>2411.746226783534</v>
       </c>
       <c r="R14">
-        <v>89911.76218402758</v>
+        <v>21705.7160410518</v>
       </c>
       <c r="S14">
-        <v>0.01105322940991154</v>
+        <v>0.00233559535140688</v>
       </c>
       <c r="T14">
-        <v>0.01105322940991154</v>
+        <v>0.002335595351406881</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>100.9654023333333</v>
+        <v>14.34625366666667</v>
       </c>
       <c r="H15">
-        <v>302.8962069999999</v>
+        <v>43.038761</v>
       </c>
       <c r="I15">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="J15">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>489.018707</v>
       </c>
       <c r="O15">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P15">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q15">
-        <v>16457.99016692715</v>
+        <v>2338.528806122448</v>
       </c>
       <c r="R15">
-        <v>148121.9115023443</v>
+        <v>21046.75925510203</v>
       </c>
       <c r="S15">
-        <v>0.01820924680709764</v>
+        <v>0.002264689770446939</v>
       </c>
       <c r="T15">
-        <v>0.01820924680709764</v>
+        <v>0.002264689770446939</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>100.9654023333333</v>
+        <v>14.34625366666667</v>
       </c>
       <c r="H16">
-        <v>302.8962069999999</v>
+        <v>43.038761</v>
       </c>
       <c r="I16">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="J16">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N16">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O16">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P16">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q16">
-        <v>14566.56096120519</v>
+        <v>2381.385288405444</v>
       </c>
       <c r="R16">
-        <v>131099.0486508467</v>
+        <v>21432.46759564899</v>
       </c>
       <c r="S16">
-        <v>0.0161165549974771</v>
+        <v>0.002306193059510361</v>
       </c>
       <c r="T16">
-        <v>0.01611655499747711</v>
+        <v>0.002306193059510361</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>100.9654023333333</v>
+        <v>14.34625366666667</v>
       </c>
       <c r="H17">
-        <v>302.8962069999999</v>
+        <v>43.038761</v>
       </c>
       <c r="I17">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="J17">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N17">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O17">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P17">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q17">
-        <v>6602.744220633583</v>
+        <v>950.1055302609427</v>
       </c>
       <c r="R17">
-        <v>59424.69798570224</v>
+        <v>8550.949772348484</v>
       </c>
       <c r="S17">
-        <v>0.007305326950508359</v>
+        <v>0.0009201059527655681</v>
       </c>
       <c r="T17">
-        <v>0.00730532695050836</v>
+        <v>0.0009201059527655681</v>
       </c>
     </row>
   </sheetData>
